--- a/Dokumen Pelengkap/TF-IDF.xlsx
+++ b/Dokumen Pelengkap/TF-IDF.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,42 +37,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
-    <t>Term (t)</t>
-  </si>
-  <si>
-    <t>D1 (Dokumen 1)</t>
-  </si>
-  <si>
-    <t>Saya</t>
-  </si>
-  <si>
-    <t>sedang</t>
-  </si>
-  <si>
-    <t>belajar</t>
-  </si>
-  <si>
-    <t>hitung</t>
-  </si>
-  <si>
-    <t>tf</t>
-  </si>
-  <si>
-    <t>idf</t>
-  </si>
-  <si>
     <t>Contoh Soal TF-IDF</t>
   </si>
   <si>
-    <t>D2 (Dokumen 2)</t>
-  </si>
-  <si>
-    <t>Mari</t>
-  </si>
-  <si>
-    <t>bersama</t>
-  </si>
-  <si>
     <t>Terdapat kalimat “Saya sedang belajar hitung - hitung tf idf. Mari belajar hitung hitung bersama tf idf.” tentukan nilai TF dan TF-IDF !</t>
   </si>
   <si>
@@ -79,24 +47,6 @@
   </si>
   <si>
     <t>Sedangkan rumus dari IDF adalah sebagai berikut :</t>
-  </si>
-  <si>
-    <t>IDF</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>TF-IDF</t>
-  </si>
-  <si>
-    <t>Menghitung IDF :</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>DF (Semua Dokumen)</t>
   </si>
   <si>
     <r>
@@ -123,6 +73,57 @@
     </r>
   </si>
   <si>
+    <t>Menghitung IDF :</t>
+  </si>
+  <si>
+    <t>Term (t)</t>
+  </si>
+  <si>
+    <t>TF-IDF</t>
+  </si>
+  <si>
+    <t>D1 (Dokumen 1)</t>
+  </si>
+  <si>
+    <t>D2 (Dokumen 2)</t>
+  </si>
+  <si>
+    <t>DF (Semua Dokumen)</t>
+  </si>
+  <si>
+    <t>IDF</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Saya</t>
+  </si>
+  <si>
+    <t>sedang</t>
+  </si>
+  <si>
+    <t>belajar</t>
+  </si>
+  <si>
+    <t>hitung</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>idf</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>bersama</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -133,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,48 +250,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +750,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="3" width="16.7109375" customWidth="1"/>
@@ -772,9 +763,9 @@
     <col min="14" max="14" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -787,21 +778,21 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="11" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -814,70 +805,70 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="I12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="30">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="I12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -889,16 +880,16 @@
         <f>SUM(B14:C14)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2">
         <f>LN((2+1)/(D14+1))+1</f>
         <v>1.4054651081081644</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J14" s="2">
         <f>B27*G14</f>
@@ -909,9 +900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -923,16 +914,16 @@
         <f t="shared" ref="D15:D21" si="0">SUM(B15:C15)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ref="G15:G21" si="1">LN((2+1)/(D15+1))+1</f>
         <v>1.4054651081081644</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ref="J15:J21" si="2">B28*G15</f>
@@ -943,9 +934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -957,16 +948,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>1.4054651081081644</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
@@ -977,9 +968,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -991,16 +982,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>0.48917437623400928</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
@@ -1011,9 +1002,9 @@
         <v>0.24458718811700464</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1025,16 +1016,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
@@ -1045,9 +1036,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1059,16 +1050,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
@@ -1079,9 +1070,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -1093,16 +1084,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>1.4054651081081644</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
@@ -1113,9 +1104,9 @@
         <v>1.4054651081081644</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>11</v>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -1127,16 +1118,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>1.4054651081081644</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>11</v>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
@@ -1147,76 +1138,76 @@
         <v>1.4054651081081644</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="30">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2">
         <f>B14/D14</f>
@@ -1231,9 +1222,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ref="B28:B33" si="4">B15/D15</f>
@@ -1248,9 +1239,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="4"/>
@@ -1265,9 +1256,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="4"/>
@@ -1282,9 +1273,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="4"/>
@@ -1299,9 +1290,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="4"/>
@@ -1316,9 +1307,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="4"/>
@@ -1333,9 +1324,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>11</v>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="2">
         <f>B21/D21</f>
@@ -1350,8 +1341,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="2">
@@ -1367,33 +1358,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2">
         <f>J14^2</f>
@@ -1403,11 +1394,11 @@
         <f>K14^2</f>
         <v>0</v>
       </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B41" s="2">
         <f>J15^2</f>
@@ -1417,11 +1408,11 @@
         <f>K15^2</f>
         <v>0</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B42" s="2">
         <f>J16^2</f>
@@ -1431,11 +1422,11 @@
         <f>K16^2</f>
         <v>0</v>
       </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2">
         <f>J17^2</f>
@@ -1445,11 +1436,11 @@
         <f>K17^2</f>
         <v>5.9822892590983015E-2</v>
       </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B44" s="2">
         <f>J18^2</f>
@@ -1459,11 +1450,11 @@
         <f>K18^2</f>
         <v>0.25</v>
       </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B45" s="2">
         <f>J19^2</f>
@@ -1473,11 +1464,11 @@
         <f>K19^2</f>
         <v>0.25</v>
       </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" ref="B46:C47" si="8">J20^2</f>
@@ -1487,11 +1478,11 @@
         <f t="shared" si="8"/>
         <v>1.9753321701094941</v>
       </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>11</v>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="8"/>
@@ -1501,48 +1492,48 @@
         <f t="shared" si="8"/>
         <v>1.9753321701094941</v>
       </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="7">
         <f>SUM(B40:B47)</f>
         <v>6.4858194029194651</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="7">
         <f>SUM(C40:C47)</f>
         <v>4.5104872328099717</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="7">
         <f>SQRT(B48)</f>
         <v>2.5467271944437759</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="7">
         <f>SQRT(C48)</f>
         <v>2.1237907695462779</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B52" s="2">
         <f>J14/$B$49</f>
@@ -1553,9 +1544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" ref="B53:B59" si="9">J15/$B$49</f>
@@ -1566,9 +1557,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" si="9"/>
@@ -1579,9 +1570,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B55" s="2">
         <f t="shared" si="9"/>
@@ -1592,9 +1583,9 @@
         <v>0.11516538805244818</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" si="9"/>
@@ -1605,9 +1596,9 @@
         <v>0.23542808791226591</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B57" s="2">
         <f t="shared" si="9"/>
@@ -1618,9 +1609,9 @@
         <v>0.23542808791226591</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" si="9"/>
@@ -1631,9 +1622,9 @@
         <v>0.66177192605862245</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>11</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B59" s="2">
         <f t="shared" si="9"/>
